--- a/Género/Violencia contra Mujer/27.13.xlsx
+++ b/Género/Violencia contra Mujer/27.13.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB23454-90BA-4A43-8ECE-0B8C32CDDC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564400F-3800-42D4-A6A4-E9C016BAA72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5E89A8E9-4E95-41BC-85C5-E9B75F1C064B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos efectivos hombres" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabla Complementaria" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
   <si>
     <t>Ingresos efectivos de Hombres</t>
   </si>
@@ -55,13 +56,463 @@
   </si>
   <si>
     <t>Ingresos Efectivos Centros de Reeducación de Hombres 2015-2019 (Ex HEVPA )</t>
+  </si>
+  <si>
+    <t>Código_Región</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Nombre de Centro</t>
+  </si>
+  <si>
+    <t>Ejecutor</t>
+  </si>
+  <si>
+    <t>Cobertura Territorial</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Tipo de Atención</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Arica</t>
+  </si>
+  <si>
+    <t>Intendencia Regional de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <r>
+      <t>Juan Nóe 455, Oficina 477-A » Conjunto Habitacional Vicuña Mackenna»</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Arica.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remota</t>
+  </si>
+  <si>
+    <t>centro.hombresarica@gmail.com</t>
+  </si>
+  <si>
+    <t>Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Alto Hospicio</t>
+  </si>
+  <si>
+    <t>Municipalidad de Alto Hospicio</t>
+  </si>
+  <si>
+    <t>Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>Presencial y Remota</t>
+  </si>
+  <si>
+    <t>Pasaje Yungay Bajo N°3719, sector La Tortuga, Alto Hospicio.</t>
+  </si>
+  <si>
+    <t>Atención Remota</t>
+  </si>
+  <si>
+    <t>Atención Presencial</t>
+  </si>
+  <si>
+    <t>No tiene</t>
+  </si>
+  <si>
+    <t>centrodehombresiquique@gmail.com</t>
+  </si>
+  <si>
+    <t>Tarapacá</t>
+  </si>
+  <si>
+    <t>Centro de Reeducación a Hombres</t>
+  </si>
+  <si>
+    <t>ONG Trekan</t>
+  </si>
+  <si>
+    <t>Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Santa Mercedes Nº1124, sector Coviefi, Antofagasta.</t>
+  </si>
+  <si>
+    <t>14:00 a 18:00 horas</t>
+  </si>
+  <si>
+    <t>centrodehombresantofagasta@gmail.com</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Copiapó</t>
+  </si>
+  <si>
+    <t>Municipalidad de Copiapó</t>
+  </si>
+  <si>
+    <t>Región de Atacama</t>
+  </si>
+  <si>
+    <t>Maipú N°770, a un costado de EX Chilexpress, sector Centro</t>
+  </si>
+  <si>
+    <t>chombres3@gmail.com</t>
+  </si>
+  <si>
+    <t>No Indicado</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Coquimbo</t>
+  </si>
+  <si>
+    <t>Municipalidad de La Serena</t>
+  </si>
+  <si>
+    <t>Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>Pasaje Santos Ossa 825, La Serena.</t>
+  </si>
+  <si>
+    <t>centrohombreslaserena@gmail.com</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Villa Alemana</t>
+  </si>
+  <si>
+    <t>Municipalidad de Villa Alemana</t>
+  </si>
+  <si>
+    <t>Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>José Miguel Carrera N°1362, Palmilla Baja, Villa Alemana</t>
+  </si>
+  <si>
+    <t>crh.villalemana@gmail.com</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Centro HEPVA RM</t>
+  </si>
+  <si>
+    <t>Municipalidad de Estación Central</t>
+  </si>
+  <si>
+    <t>Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Pasaje Las Acacias 11, Metro Las Rejas, comuna de Estación Central.</t>
+  </si>
+  <si>
+    <t>2 – 232 642 614</t>
+  </si>
+  <si>
+    <t>hsinviolencia@gmail.com</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Centro para Hombres O’Higgins</t>
+  </si>
+  <si>
+    <t>Fundación León Bloy</t>
+  </si>
+  <si>
+    <t>Región de O'Higgins</t>
+  </si>
+  <si>
+    <t>Av. Alberto Einstein 222, Villa Magisterio, Rancagua.</t>
+  </si>
+  <si>
+    <t>centrodehombres6region@gmail.com</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Talca</t>
+  </si>
+  <si>
+    <t>Intendencia del Maule</t>
+  </si>
+  <si>
+    <t>Región del Maule</t>
+  </si>
+  <si>
+    <t>Edificio Torre Talca, Oficina 61 6to piso. 1 Sur entre 1 y 2 Oriente</t>
+  </si>
+  <si>
+    <t>08:30 a 17:00 horas</t>
+  </si>
+  <si>
+    <t>centrohombresmaule@gmail.com</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Ñuble</t>
+  </si>
+  <si>
+    <t>Municipalidad de San Carlos</t>
+  </si>
+  <si>
+    <t>Región de Ñuble</t>
+  </si>
+  <si>
+    <t>Carrera N° 128, San Carlos</t>
+  </si>
+  <si>
+    <t>centroreeducaciondehombres@gmail.com </t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>Centro de Reeducación para Hombres</t>
+  </si>
+  <si>
+    <t>Municipalidad de Concepción</t>
+  </si>
+  <si>
+    <t>Región del Biobío</t>
+  </si>
+  <si>
+    <t>Calle Freire 1421, 2° Piso Concepción.</t>
+  </si>
+  <si>
+    <t>centrohombressernamconcepcion@gmail.com</t>
+  </si>
+  <si>
+    <t>Biobío</t>
+  </si>
+  <si>
+    <t>Centro de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>Municipalidad de Temuco</t>
+  </si>
+  <si>
+    <t>Región de la Araucanía</t>
+  </si>
+  <si>
+    <t>Calle León Gallo N° 135 Primer piso Temuco</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Los Ríos</t>
+  </si>
+  <si>
+    <t>Sociedad de Beneficencia Hogar del Niño</t>
+  </si>
+  <si>
+    <t>Carampangue N° 583, Valdivia</t>
+  </si>
+  <si>
+    <t>centroparahombreslosrios@gmail.com</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Los Lagos</t>
+  </si>
+  <si>
+    <t>Intendencia Regional Los Lagos</t>
+  </si>
+  <si>
+    <t>Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>Calle Ochagavia N° 710, Puerto Montt</t>
+  </si>
+  <si>
+    <t>centrohombresloslagos@gmail.com</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Aysén</t>
+  </si>
+  <si>
+    <t>Municipalidad de Coyhaique</t>
+  </si>
+  <si>
+    <t>Región de Aysén</t>
+  </si>
+  <si>
+    <t>Simón Bolívar 404, Coyhaique</t>
+  </si>
+  <si>
+    <t>centrodehombres.coyhaique@gmail.com</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>Centro para Hombres Magallanes</t>
+  </si>
+  <si>
+    <t>Fundación para el Desarrollo Fide XII</t>
+  </si>
+  <si>
+    <t>Región de Magallanes</t>
+  </si>
+  <si>
+    <t>Jorge Montt N° 115, playa norte, Punta Arenas.</t>
+  </si>
+  <si>
+    <t>centrodehombrespuntaarenas@gmail.com</t>
+  </si>
+  <si>
+    <t>Magallanes</t>
+  </si>
+  <si>
+    <t>Email 2</t>
+  </si>
+  <si>
+    <t>hevpaaraucania@gmail.com</t>
+  </si>
+  <si>
+    <t>hevpa@temuco.cl</t>
+  </si>
+  <si>
+    <t>09:00 a 18:00 horas</t>
+  </si>
+  <si>
+    <t>08:30 a 17:30 horas</t>
+  </si>
+  <si>
+    <t>08:00 a 16:48 horas</t>
+  </si>
+  <si>
+    <t>lunes a jueves de 08:30 a 13:00 horas</t>
+  </si>
+  <si>
+    <t>lunes a viernes de 08:30 a 17:30 horas</t>
+  </si>
+  <si>
+    <t>lunes, martes, miércoles y viernes de 08:15 a 13:00 horas y de 14:00 a 18:00 horas, y jueves de 13:00 a 21:00 horas</t>
+  </si>
+  <si>
+    <t>lunes a jueves de 08:30 a 17:30 horas y viernes de 08:30 a 16:30 horas</t>
+  </si>
+  <si>
+    <t>lunes a jueves de 08:30 a 17:30 horas y viernes de 08:30 a 16:30 horas</t>
+  </si>
+  <si>
+    <t>+56966458190</t>
+  </si>
+  <si>
+    <t>(55) 2866762 / +56920943964</t>
+  </si>
+  <si>
+    <t>(52) 2236166 / +56957385078</t>
+  </si>
+  <si>
+    <t>(51) 2427856</t>
+  </si>
+  <si>
+    <t>+56944570003 / +56982025968</t>
+  </si>
+  <si>
+    <t>(72) 2611558 / +56939430577</t>
+  </si>
+  <si>
+    <t>(71) 2740385 / (71) 2740386</t>
+  </si>
+  <si>
+    <t>(41) 2307609 / +56961281960</t>
+  </si>
+  <si>
+    <t>(45) 2973870 / (45) 2973877 / (45) 2973880</t>
+  </si>
+  <si>
+    <t>(63) 2200317 / +56936834527</t>
+  </si>
+  <si>
+    <t>(65) 2266810</t>
+  </si>
+  <si>
+    <t>(67) 2273032</t>
+  </si>
+  <si>
+    <t>+56976664820</t>
+  </si>
+  <si>
+    <t>(22) 9207484 / +56991065581</t>
+  </si>
+  <si>
+    <t>(22) 8483249 / +56965882416</t>
+  </si>
+  <si>
+    <t>Tipo de Ejecutor</t>
+  </si>
+  <si>
+    <t>Intendencia</t>
+  </si>
+  <si>
+    <t>Municipalidad</t>
+  </si>
+  <si>
+    <t>Terceros</t>
+  </si>
+  <si>
+    <t>Región de Los Ríos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +520,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,25 +556,642 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -119,17 +1206,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,12 +1224,36 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08CE8C76-8FAB-4465-98A2-46ED375B1EB4}" name="Centro_Reeducación_Hombres" displayName="Centro_Reeducación_Hombres" ref="A1:F11" totalsRowShown="0">
   <autoFilter ref="A1:F11" xr:uid="{08CE8C76-8FAB-4465-98A2-46ED375B1EB4}"/>
   <tableColumns count="6">
-    <tableColumn id="13" xr3:uid="{7BFBDF1E-0C04-4046-ADCE-59237ACD28CF}" name="Id_Producto" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{897D3137-6D52-445A-BD61-3DDA078C6243}" name="Producto" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{A1D11295-B8C7-4B18-96ED-76EBE98B94FB}" name="Id_Categoría" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{7BFBDF1E-0C04-4046-ADCE-59237ACD28CF}" name="Id_Producto" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{897D3137-6D52-445A-BD61-3DDA078C6243}" name="Producto" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{A1D11295-B8C7-4B18-96ED-76EBE98B94FB}" name="Id_Categoría" dataDxfId="18"/>
     <tableColumn id="1" xr3:uid="{5219E092-B3F5-49BA-AF23-62F7E15B35E9}" name="Tipo de Procedimiento"/>
     <tableColumn id="11" xr3:uid="{62A5AF08-A722-4E90-9873-4253283A182C}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{161CA6D4-2CA9-4509-A704-CBA94394B1A8}" name="Cantidad" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{161CA6D4-2CA9-4509-A704-CBA94394B1A8}" name="Cantidad" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16A1CE49-4E7F-43FA-A601-DF186213AB7A}" name="Centro_Hombres_Complementaria" displayName="Centro_Hombres_Complementaria" ref="A1:O17" totalsRowShown="0" headerRowDxfId="16" dataDxfId="1">
+  <autoFilter ref="A1:O17" xr:uid="{16A1CE49-4E7F-43FA-A601-DF186213AB7A}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{17335331-2180-4FE4-BEBB-EA0283225ED7}" name="Id_Producto" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{1DA032EC-4896-4D91-9B37-0CD021389B26}" name="Producto" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{29200E15-F1B7-47DE-9ED0-F54EC0816BCA}" name="Código_Región" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F16B8CF3-B578-4D2E-9388-FA74692E7E90}" name="Región" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{47950018-9048-4B41-93EA-C113DC6E1ED5}" name="Nombre de Centro" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E4D17E5E-917F-437C-A911-DD6814C639C1}" name="Ejecutor" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{C5523AB7-4E60-47C0-A581-8A1C4F1BA42A}" name="Tipo de Ejecutor" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{E19444AD-1368-4F40-8C8D-A14B100B986B}" name="Cobertura Territorial" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{15EA7233-7762-440C-B4E8-C683E652CDB5}" name="Dirección" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{09AA0779-5B6F-4026-A3B0-59445C955D4D}" name="Tipo de Atención" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{753B2893-4A8A-4B5D-AA22-F79E9A22913E}" name="Atención Remota" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{C317D8C7-6EB5-4B33-9421-405D6F1FA6B3}" name="Atención Presencial" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{9019FD19-2D51-4772-9879-C70ED2375CFF}" name="Teléfono" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{EA59B0DC-6150-4809-A7B3-5F0EC317C102}" name="Email" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{661EC462-0CF1-47F2-9F8F-88B3A0DFB4BF}" name="Email 2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,7 +1559,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,4 +1809,821 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45668AE1-80F2-4F7C-B666-DC26B7EEC1A6}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>270111</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" display="https://www.sernameg.gob.cl/centro.hombresarica@gmail.com" xr:uid="{1BCF0EE0-B287-4AC3-BF86-DFB67BA9C2FF}"/>
+    <hyperlink ref="N3" r:id="rId2" display="mailto:centrodehombresiquique@gmail.com" xr:uid="{BD830CE6-A31B-4489-B993-487B4AA53F93}"/>
+    <hyperlink ref="N4" r:id="rId3" display="mailto:centrodehombresantofagasta@gmail.com" xr:uid="{0450D522-AECE-475B-B537-0634149EFE99}"/>
+    <hyperlink ref="N5" r:id="rId4" display="https://www.sernameg.gob.cl/chombres3@gmail.com" xr:uid="{AA8D2A7B-B20F-4787-9951-B1DA823CF336}"/>
+    <hyperlink ref="N6" r:id="rId5" display="https://www.sernameg.gob.cl/centrohombreslaserena@gmail.com" xr:uid="{DFD69825-BEFC-4953-A995-DC69DCC2894D}"/>
+    <hyperlink ref="N7" r:id="rId6" display="mailto:crh.villalemana@gmail.com" xr:uid="{B3AB4CD3-4D6B-4588-A6C1-ADBA5DB7EE38}"/>
+    <hyperlink ref="N8" r:id="rId7" display="mailto:hsinviolencia@gmail.com" xr:uid="{ADFDF6BE-6DD1-48DB-A1FD-35C83D4CF274}"/>
+    <hyperlink ref="N9" r:id="rId8" display="https://www.sernameg.gob.cl/centrodehombres6region@gmail.com" xr:uid="{F8A391A4-4E6F-4729-9257-5717873224E0}"/>
+    <hyperlink ref="N10" r:id="rId9" display="https://www.sernameg.gob.cl/centrohombresmaule@gmail.com" xr:uid="{AE6516D6-A78E-4164-B715-F438D8467A25}"/>
+    <hyperlink ref="N11" r:id="rId10" display="mailto:centroreeducaciondehombres@gmail.com" xr:uid="{09C300BE-E810-4E36-BD11-D5886B3E1E43}"/>
+    <hyperlink ref="N12" r:id="rId11" display="https://www.sernameg.gob.cl/centrohombressernamconcepcion@gmail.com" xr:uid="{52536B20-9ABF-4520-974C-8AED2452EA73}"/>
+    <hyperlink ref="N14" r:id="rId12" display="https://www.sernameg.gob.cl/centroparahombreslosrios@gmail.com" xr:uid="{812F5CF8-A4D5-481D-8B81-262DEC5D7B9E}"/>
+    <hyperlink ref="N15" r:id="rId13" display="https://www.sernameg.gob.cl/centrohombresloslagos@gmail.com" xr:uid="{FD182A9B-D32A-46DE-9A41-0414BB623DB6}"/>
+    <hyperlink ref="N16" r:id="rId14" display="https://www.sernameg.gob.cl/centrodehombres.coyhaique@gmail.com" xr:uid="{3F13A463-9688-45A9-ACA6-9E997A89044D}"/>
+    <hyperlink ref="N17" r:id="rId15" display="https://www.sernameg.gob.cl/centrodehombrespuntaarenas@gmail.com" xr:uid="{A8BAC8B7-6206-46CC-AE5F-0DCD16D8D703}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
+</worksheet>
 </file>